--- a/lowe/edd/data/REDD$HWS.xlsx
+++ b/lowe/edd/data/REDD$HWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1349,14 +1349,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH49"/>
+  <dimension ref="A1:JI49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1366,12 +1366,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1399,12 +1399,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1417,7 +1417,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2219,11 +2219,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3024,10 +3027,13 @@
         <v>74100</v>
       </c>
       <c r="JH9" s="11">
-        <v>74800</v>
+        <v>74900</v>
+      </c>
+      <c r="JI9" s="11">
+        <v>75000</v>
       </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3828,10 +3834,13 @@
         <v>68900</v>
       </c>
       <c r="JH10" s="11">
-        <v>69900</v>
+        <v>70000</v>
+      </c>
+      <c r="JI10" s="11">
+        <v>70800</v>
       </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4634,8 +4643,11 @@
       <c r="JH11" s="11">
         <v>4900</v>
       </c>
+      <c r="JI11" s="11">
+        <v>4200</v>
+      </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5438,8 +5450,11 @@
       <c r="JH12" s="12">
         <v>6.5000000000000002E-2</v>
       </c>
+      <c r="JI12" s="12">
+        <v>5.6000000000000001E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6242,8 +6257,11 @@
       <c r="JH13" s="11">
         <v>69300</v>
       </c>
+      <c r="JI13" s="11">
+        <v>69800</v>
+      </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7044,10 +7062,13 @@
         <v>1400</v>
       </c>
       <c r="JH14" s="11">
-        <v>1200</v>
+        <v>1400</v>
+      </c>
+      <c r="JI14" s="11">
+        <v>1400</v>
       </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7848,10 +7869,13 @@
         <v>66300</v>
       </c>
       <c r="JH15" s="11">
-        <v>68100</v>
+        <v>67900</v>
+      </c>
+      <c r="JI15" s="11">
+        <v>68400</v>
       </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8652,10 +8676,13 @@
         <v>54000</v>
       </c>
       <c r="JH16" s="11">
-        <v>54200</v>
+        <v>54000</v>
+      </c>
+      <c r="JI16" s="11">
+        <v>54100</v>
       </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9458,8 +9485,11 @@
       <c r="JH17" s="11">
         <v>7200</v>
       </c>
+      <c r="JI17" s="11">
+        <v>7200</v>
+      </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10262,8 +10292,11 @@
       <c r="JH18" s="11">
         <v>4800</v>
       </c>
+      <c r="JI18" s="11">
+        <v>4800</v>
+      </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -11066,8 +11099,11 @@
       <c r="JH19" s="11">
         <v>2400</v>
       </c>
+      <c r="JI19" s="11">
+        <v>2400</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>22</v>
       </c>
@@ -11868,10 +11904,13 @@
         <v>59100</v>
       </c>
       <c r="JH20" s="11">
-        <v>60900</v>
+        <v>60700</v>
+      </c>
+      <c r="JI20" s="11">
+        <v>61200</v>
       </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>23</v>
       </c>
@@ -12672,10 +12711,13 @@
         <v>46800</v>
       </c>
       <c r="JH21" s="11">
-        <v>47000</v>
+        <v>46800</v>
+      </c>
+      <c r="JI21" s="11">
+        <v>46900</v>
       </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>24</v>
       </c>
@@ -13476,10 +13518,13 @@
         <v>13400</v>
       </c>
       <c r="JH22" s="11">
-        <v>13600</v>
+        <v>13500</v>
+      </c>
+      <c r="JI22" s="11">
+        <v>13400</v>
       </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>25</v>
       </c>
@@ -14282,8 +14327,11 @@
       <c r="JH23" s="11">
         <v>1800</v>
       </c>
+      <c r="JI23" s="11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>26</v>
       </c>
@@ -15086,8 +15134,11 @@
       <c r="JH24" s="11">
         <v>9500</v>
       </c>
+      <c r="JI24" s="11">
+        <v>9400</v>
+      </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>30</v>
       </c>
@@ -15888,10 +15939,13 @@
         <v>2200</v>
       </c>
       <c r="JH25" s="11">
-        <v>2300</v>
+        <v>2200</v>
+      </c>
+      <c r="JI25" s="11">
+        <v>2200</v>
       </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>33</v>
       </c>
@@ -16694,8 +16748,11 @@
       <c r="JH26" s="11">
         <v>500</v>
       </c>
+      <c r="JI26" s="11">
+        <v>500</v>
+      </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>34</v>
       </c>
@@ -17498,8 +17555,11 @@
       <c r="JH27" s="11">
         <v>2900</v>
       </c>
+      <c r="JI27" s="11">
+        <v>2900</v>
+      </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>37</v>
       </c>
@@ -18300,10 +18360,13 @@
         <v>6000</v>
       </c>
       <c r="JH28" s="11">
-        <v>6100</v>
+        <v>6000</v>
+      </c>
+      <c r="JI28" s="11">
+        <v>6000</v>
       </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>38</v>
       </c>
@@ -19104,10 +19167,13 @@
         <v>16000</v>
       </c>
       <c r="JH29" s="11">
-        <v>16000</v>
+        <v>15900</v>
+      </c>
+      <c r="JI29" s="11">
+        <v>15900</v>
       </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>39</v>
       </c>
@@ -19910,8 +19976,11 @@
       <c r="JH30" s="11">
         <v>5600</v>
       </c>
+      <c r="JI30" s="11">
+        <v>5800</v>
+      </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>41</v>
       </c>
@@ -20712,10 +20781,13 @@
         <v>5000</v>
       </c>
       <c r="JH31" s="11">
-        <v>5000</v>
+        <v>5100</v>
+      </c>
+      <c r="JI31" s="11">
+        <v>5100</v>
       </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>44</v>
       </c>
@@ -21516,10 +21588,13 @@
         <v>2400</v>
       </c>
       <c r="JH32" s="11">
-        <v>2300</v>
+        <v>2400</v>
+      </c>
+      <c r="JI32" s="11">
+        <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>45</v>
       </c>
@@ -22322,8 +22397,11 @@
       <c r="JH33" s="11">
         <v>13900</v>
       </c>
+      <c r="JI33" s="11">
+        <v>14300</v>
+      </c>
     </row>
-    <row r="34" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>46</v>
       </c>
@@ -23126,8 +23204,11 @@
       <c r="JH34" s="11">
         <v>1400</v>
       </c>
+      <c r="JI34" s="11">
+        <v>1400</v>
+      </c>
     </row>
-    <row r="35" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>47</v>
       </c>
@@ -23930,8 +24011,11 @@
       <c r="JH35" s="11">
         <v>12500</v>
       </c>
+      <c r="JI35" s="11">
+        <v>12900</v>
+      </c>
     </row>
-    <row r="36" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>48</v>
       </c>
@@ -24734,8 +24818,11 @@
       <c r="JH36" s="11">
         <v>2000</v>
       </c>
+      <c r="JI36" s="11">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="37" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>49</v>
       </c>
@@ -25538,8 +25625,11 @@
       <c r="JH37" s="11">
         <v>10500</v>
       </c>
+      <c r="JI37" s="11">
+        <v>10900</v>
+      </c>
     </row>
-    <row r="38" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>50</v>
       </c>
@@ -26342,8 +26432,11 @@
       <c r="JH38" s="11">
         <v>5700</v>
       </c>
+      <c r="JI38" s="11">
+        <v>6100</v>
+      </c>
     </row>
-    <row r="39" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>51</v>
       </c>
@@ -27146,8 +27239,11 @@
       <c r="JH39" s="11">
         <v>4800</v>
       </c>
+      <c r="JI39" s="11">
+        <v>4800</v>
+      </c>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>54</v>
       </c>
@@ -27950,8 +28046,11 @@
       <c r="JH40" s="11">
         <v>1400</v>
       </c>
+      <c r="JI40" s="11">
+        <v>1300</v>
+      </c>
     </row>
-    <row r="42" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>102</v>
       </c>
@@ -27964,7 +28063,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="16"/>
     </row>
-    <row r="43" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>16</v>
       </c>
@@ -27977,7 +28076,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="18"/>
     </row>
-    <row r="44" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>103</v>
       </c>
@@ -27990,7 +28089,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>104</v>
       </c>
@@ -28003,7 +28102,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>105</v>
       </c>
@@ -28016,7 +28115,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>106</v>
       </c>
@@ -28029,7 +28128,7 @@
       <c r="H47" s="14"/>
       <c r="I47" s="18"/>
     </row>
-    <row r="48" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>107</v>
       </c>

--- a/lowe/edd/data/REDD$HWS.xlsx
+++ b/lowe/edd/data/REDD$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1349,7 +1349,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI49"/>
+  <dimension ref="A1:JJ49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1366,12 +1366,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1399,12 +1399,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1417,7 +1417,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2222,11 +2222,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3030,10 +3033,13 @@
         <v>74900</v>
       </c>
       <c r="JI9" s="11">
-        <v>75000</v>
+        <v>74500</v>
+      </c>
+      <c r="JJ9" s="11">
+        <v>75400</v>
       </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3837,10 +3843,13 @@
         <v>70000</v>
       </c>
       <c r="JI10" s="11">
-        <v>70800</v>
+        <v>70300</v>
+      </c>
+      <c r="JJ10" s="11">
+        <v>71300</v>
       </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4646,8 +4655,11 @@
       <c r="JI11" s="11">
         <v>4200</v>
       </c>
+      <c r="JJ11" s="11">
+        <v>4100</v>
+      </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5453,8 +5465,11 @@
       <c r="JI12" s="12">
         <v>5.6000000000000001E-2</v>
       </c>
+      <c r="JJ12" s="12">
+        <v>5.3999999999999999E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6258,10 +6273,13 @@
         <v>69300</v>
       </c>
       <c r="JI13" s="11">
-        <v>69800</v>
+        <v>69200</v>
+      </c>
+      <c r="JJ13" s="11">
+        <v>70600</v>
       </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7067,8 +7085,11 @@
       <c r="JI14" s="11">
         <v>1400</v>
       </c>
+      <c r="JJ14" s="11">
+        <v>2100</v>
+      </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7872,10 +7893,13 @@
         <v>67900</v>
       </c>
       <c r="JI15" s="11">
-        <v>68400</v>
+        <v>67800</v>
+      </c>
+      <c r="JJ15" s="11">
+        <v>68500</v>
       </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8679,10 +8703,13 @@
         <v>54000</v>
       </c>
       <c r="JI16" s="11">
-        <v>54100</v>
+        <v>53900</v>
+      </c>
+      <c r="JJ16" s="11">
+        <v>54500</v>
       </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9488,8 +9515,11 @@
       <c r="JI17" s="11">
         <v>7200</v>
       </c>
+      <c r="JJ17" s="11">
+        <v>7200</v>
+      </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10295,8 +10325,11 @@
       <c r="JI18" s="11">
         <v>4800</v>
       </c>
+      <c r="JJ18" s="11">
+        <v>4800</v>
+      </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -11102,8 +11135,11 @@
       <c r="JI19" s="11">
         <v>2400</v>
       </c>
+      <c r="JJ19" s="11">
+        <v>2400</v>
+      </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>22</v>
       </c>
@@ -11907,10 +11943,13 @@
         <v>60700</v>
       </c>
       <c r="JI20" s="11">
-        <v>61200</v>
+        <v>60600</v>
+      </c>
+      <c r="JJ20" s="11">
+        <v>61300</v>
       </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>23</v>
       </c>
@@ -12714,10 +12753,13 @@
         <v>46800</v>
       </c>
       <c r="JI21" s="11">
-        <v>46900</v>
+        <v>46700</v>
+      </c>
+      <c r="JJ21" s="11">
+        <v>47300</v>
       </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>24</v>
       </c>
@@ -13523,8 +13565,11 @@
       <c r="JI22" s="11">
         <v>13400</v>
       </c>
+      <c r="JJ22" s="11">
+        <v>13700</v>
+      </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>25</v>
       </c>
@@ -14330,8 +14375,11 @@
       <c r="JI23" s="11">
         <v>1800</v>
       </c>
+      <c r="JJ23" s="11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>26</v>
       </c>
@@ -15137,8 +15185,11 @@
       <c r="JI24" s="11">
         <v>9400</v>
       </c>
+      <c r="JJ24" s="11">
+        <v>9700</v>
+      </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>30</v>
       </c>
@@ -15944,8 +15995,11 @@
       <c r="JI25" s="11">
         <v>2200</v>
       </c>
+      <c r="JJ25" s="11">
+        <v>2200</v>
+      </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>33</v>
       </c>
@@ -16751,8 +16805,11 @@
       <c r="JI26" s="11">
         <v>500</v>
       </c>
+      <c r="JJ26" s="11">
+        <v>500</v>
+      </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>34</v>
       </c>
@@ -17558,8 +17615,11 @@
       <c r="JI27" s="11">
         <v>2900</v>
       </c>
+      <c r="JJ27" s="11">
+        <v>2900</v>
+      </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>37</v>
       </c>
@@ -18365,8 +18425,11 @@
       <c r="JI28" s="11">
         <v>6000</v>
       </c>
+      <c r="JJ28" s="11">
+        <v>6000</v>
+      </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>38</v>
       </c>
@@ -19172,8 +19235,11 @@
       <c r="JI29" s="11">
         <v>15900</v>
       </c>
+      <c r="JJ29" s="11">
+        <v>16000</v>
+      </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>39</v>
       </c>
@@ -19977,10 +20043,13 @@
         <v>5600</v>
       </c>
       <c r="JI30" s="11">
+        <v>5600</v>
+      </c>
+      <c r="JJ30" s="11">
         <v>5800</v>
       </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>41</v>
       </c>
@@ -20784,10 +20853,13 @@
         <v>5100</v>
       </c>
       <c r="JI31" s="11">
-        <v>5100</v>
+        <v>5000</v>
+      </c>
+      <c r="JJ31" s="11">
+        <v>5200</v>
       </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>44</v>
       </c>
@@ -21593,8 +21665,11 @@
       <c r="JI32" s="11">
         <v>2400</v>
       </c>
+      <c r="JJ32" s="11">
+        <v>2400</v>
+      </c>
     </row>
-    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>45</v>
       </c>
@@ -22398,10 +22473,13 @@
         <v>13900</v>
       </c>
       <c r="JI33" s="11">
-        <v>14300</v>
+        <v>13900</v>
+      </c>
+      <c r="JJ33" s="11">
+        <v>14000</v>
       </c>
     </row>
-    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>46</v>
       </c>
@@ -23207,8 +23285,11 @@
       <c r="JI34" s="11">
         <v>1400</v>
       </c>
+      <c r="JJ34" s="11">
+        <v>1300</v>
+      </c>
     </row>
-    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>47</v>
       </c>
@@ -24012,10 +24093,13 @@
         <v>12500</v>
       </c>
       <c r="JI35" s="11">
-        <v>12900</v>
+        <v>12500</v>
+      </c>
+      <c r="JJ35" s="11">
+        <v>12700</v>
       </c>
     </row>
-    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>48</v>
       </c>
@@ -24821,8 +24905,11 @@
       <c r="JI36" s="11">
         <v>2000</v>
       </c>
+      <c r="JJ36" s="11">
+        <v>1900</v>
+      </c>
     </row>
-    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>49</v>
       </c>
@@ -25626,10 +25713,13 @@
         <v>10500</v>
       </c>
       <c r="JI37" s="11">
-        <v>10900</v>
+        <v>10500</v>
+      </c>
+      <c r="JJ37" s="11">
+        <v>10800</v>
       </c>
     </row>
-    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>50</v>
       </c>
@@ -26433,10 +26523,13 @@
         <v>5700</v>
       </c>
       <c r="JI38" s="11">
-        <v>6100</v>
+        <v>5700</v>
+      </c>
+      <c r="JJ38" s="11">
+        <v>6000</v>
       </c>
     </row>
-    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>51</v>
       </c>
@@ -27242,8 +27335,11 @@
       <c r="JI39" s="11">
         <v>4800</v>
       </c>
+      <c r="JJ39" s="11">
+        <v>4800</v>
+      </c>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>54</v>
       </c>
@@ -28049,8 +28145,11 @@
       <c r="JI40" s="11">
         <v>1300</v>
       </c>
+      <c r="JJ40" s="11">
+        <v>1300</v>
+      </c>
     </row>
-    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>102</v>
       </c>
@@ -28063,7 +28162,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="16"/>
     </row>
-    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>16</v>
       </c>
@@ -28076,7 +28175,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="18"/>
     </row>
-    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>103</v>
       </c>
@@ -28089,7 +28188,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>104</v>
       </c>
@@ -28102,7 +28201,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>105</v>
       </c>
@@ -28115,7 +28214,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>106</v>
       </c>
@@ -28128,7 +28227,7 @@
       <c r="H47" s="14"/>
       <c r="I47" s="18"/>
     </row>
-    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>107</v>
       </c>

--- a/lowe/edd/data/REDD$HWS.xlsx
+++ b/lowe/edd/data/REDD$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -251,7 +251,7 @@
     <t>70-720000</t>
   </si>
   <si>
-    <t xml:space="preserve">          Accommodation &amp; Food Services</t>
+    <t xml:space="preserve">        Accommodation &amp; Food Services</t>
   </si>
   <si>
     <t>811000-813000</t>
@@ -1349,7 +1349,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ49"/>
+  <dimension ref="A1:JL49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1366,12 +1366,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1399,12 +1399,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1417,7 +1417,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2225,11 +2225,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3036,10 +3042,16 @@
         <v>74500</v>
       </c>
       <c r="JJ9" s="11">
-        <v>75400</v>
+        <v>75300</v>
+      </c>
+      <c r="JK9" s="11">
+        <v>75100</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>74300</v>
       </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3848,8 +3860,14 @@
       <c r="JJ10" s="11">
         <v>71300</v>
       </c>
+      <c r="JK10" s="11">
+        <v>71400</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>70700</v>
+      </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4656,10 +4674,16 @@
         <v>4200</v>
       </c>
       <c r="JJ11" s="11">
-        <v>4100</v>
+        <v>4000</v>
+      </c>
+      <c r="JK11" s="11">
+        <v>3700</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>3600</v>
       </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5468,8 +5492,14 @@
       <c r="JJ12" s="12">
         <v>5.3999999999999999E-2</v>
       </c>
+      <c r="JK12" s="12">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>4.8000000000000001E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6276,10 +6306,16 @@
         <v>69200</v>
       </c>
       <c r="JJ13" s="11">
+        <v>70700</v>
+      </c>
+      <c r="JK13" s="11">
         <v>70600</v>
       </c>
+      <c r="JL13" s="11">
+        <v>69800</v>
+      </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7088,8 +7124,14 @@
       <c r="JJ14" s="11">
         <v>2100</v>
       </c>
+      <c r="JK14" s="11">
+        <v>1700</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>1300</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7896,10 +7938,16 @@
         <v>67800</v>
       </c>
       <c r="JJ15" s="11">
+        <v>68600</v>
+      </c>
+      <c r="JK15" s="11">
+        <v>68900</v>
+      </c>
+      <c r="JL15" s="11">
         <v>68500</v>
       </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8708,8 +8756,14 @@
       <c r="JJ16" s="11">
         <v>54500</v>
       </c>
+      <c r="JK16" s="11">
+        <v>54700</v>
+      </c>
+      <c r="JL16" s="11">
+        <v>54500</v>
+      </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9518,8 +9572,14 @@
       <c r="JJ17" s="11">
         <v>7200</v>
       </c>
+      <c r="JK17" s="11">
+        <v>7100</v>
+      </c>
+      <c r="JL17" s="11">
+        <v>6800</v>
+      </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10328,8 +10388,14 @@
       <c r="JJ18" s="11">
         <v>4800</v>
       </c>
+      <c r="JK18" s="11">
+        <v>4600</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>4300</v>
+      </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -11138,8 +11204,14 @@
       <c r="JJ19" s="11">
         <v>2400</v>
       </c>
+      <c r="JK19" s="11">
+        <v>2500</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>22</v>
       </c>
@@ -11946,10 +12018,16 @@
         <v>60600</v>
       </c>
       <c r="JJ20" s="11">
-        <v>61300</v>
+        <v>61400</v>
+      </c>
+      <c r="JK20" s="11">
+        <v>61800</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>61700</v>
       </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>23</v>
       </c>
@@ -12758,8 +12836,14 @@
       <c r="JJ21" s="11">
         <v>47300</v>
       </c>
+      <c r="JK21" s="11">
+        <v>47600</v>
+      </c>
+      <c r="JL21" s="11">
+        <v>47700</v>
+      </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>24</v>
       </c>
@@ -13568,8 +13652,14 @@
       <c r="JJ22" s="11">
         <v>13700</v>
       </c>
+      <c r="JK22" s="11">
+        <v>14100</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>14200</v>
+      </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>25</v>
       </c>
@@ -14378,8 +14468,14 @@
       <c r="JJ23" s="11">
         <v>1800</v>
       </c>
+      <c r="JK23" s="11">
+        <v>1800</v>
+      </c>
+      <c r="JL23" s="11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>26</v>
       </c>
@@ -15188,8 +15284,14 @@
       <c r="JJ24" s="11">
         <v>9700</v>
       </c>
+      <c r="JK24" s="11">
+        <v>10000</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>30</v>
       </c>
@@ -15998,8 +16100,14 @@
       <c r="JJ25" s="11">
         <v>2200</v>
       </c>
+      <c r="JK25" s="11">
+        <v>2300</v>
+      </c>
+      <c r="JL25" s="11">
+        <v>2400</v>
+      </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>33</v>
       </c>
@@ -16808,8 +16916,14 @@
       <c r="JJ26" s="11">
         <v>500</v>
       </c>
+      <c r="JK26" s="11">
+        <v>500</v>
+      </c>
+      <c r="JL26" s="11">
+        <v>500</v>
+      </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>34</v>
       </c>
@@ -17618,8 +17732,14 @@
       <c r="JJ27" s="11">
         <v>2900</v>
       </c>
+      <c r="JK27" s="11">
+        <v>2900</v>
+      </c>
+      <c r="JL27" s="11">
+        <v>2900</v>
+      </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>37</v>
       </c>
@@ -18428,8 +18548,14 @@
       <c r="JJ28" s="11">
         <v>6000</v>
       </c>
+      <c r="JK28" s="11">
+        <v>6100</v>
+      </c>
+      <c r="JL28" s="11">
+        <v>6000</v>
+      </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>38</v>
       </c>
@@ -19238,8 +19364,14 @@
       <c r="JJ29" s="11">
         <v>16000</v>
       </c>
+      <c r="JK29" s="11">
+        <v>16000</v>
+      </c>
+      <c r="JL29" s="11">
+        <v>16000</v>
+      </c>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>39</v>
       </c>
@@ -20048,8 +20180,14 @@
       <c r="JJ30" s="11">
         <v>5800</v>
       </c>
+      <c r="JK30" s="11">
+        <v>5600</v>
+      </c>
+      <c r="JL30" s="11">
+        <v>5700</v>
+      </c>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>41</v>
       </c>
@@ -20856,10 +20994,16 @@
         <v>5000</v>
       </c>
       <c r="JJ31" s="11">
-        <v>5200</v>
+        <v>5100</v>
+      </c>
+      <c r="JK31" s="11">
+        <v>4900</v>
+      </c>
+      <c r="JL31" s="11">
+        <v>4900</v>
       </c>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>44</v>
       </c>
@@ -21668,8 +21812,14 @@
       <c r="JJ32" s="11">
         <v>2400</v>
       </c>
+      <c r="JK32" s="11">
+        <v>2400</v>
+      </c>
+      <c r="JL32" s="11">
+        <v>2400</v>
+      </c>
     </row>
-    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>45</v>
       </c>
@@ -22476,10 +22626,16 @@
         <v>13900</v>
       </c>
       <c r="JJ33" s="11">
+        <v>14100</v>
+      </c>
+      <c r="JK33" s="11">
+        <v>14200</v>
+      </c>
+      <c r="JL33" s="11">
         <v>14000</v>
       </c>
     </row>
-    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>46</v>
       </c>
@@ -23288,8 +23444,14 @@
       <c r="JJ34" s="11">
         <v>1300</v>
       </c>
+      <c r="JK34" s="11">
+        <v>1300</v>
+      </c>
+      <c r="JL34" s="11">
+        <v>1300</v>
+      </c>
     </row>
-    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>47</v>
       </c>
@@ -24096,10 +24258,16 @@
         <v>12500</v>
       </c>
       <c r="JJ35" s="11">
+        <v>12800</v>
+      </c>
+      <c r="JK35" s="11">
+        <v>12900</v>
+      </c>
+      <c r="JL35" s="11">
         <v>12700</v>
       </c>
     </row>
-    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>48</v>
       </c>
@@ -24906,10 +25074,16 @@
         <v>2000</v>
       </c>
       <c r="JJ36" s="11">
+        <v>2000</v>
+      </c>
+      <c r="JK36" s="11">
+        <v>2000</v>
+      </c>
+      <c r="JL36" s="11">
         <v>1900</v>
       </c>
     </row>
-    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>49</v>
       </c>
@@ -25718,8 +25892,14 @@
       <c r="JJ37" s="11">
         <v>10800</v>
       </c>
+      <c r="JK37" s="11">
+        <v>10900</v>
+      </c>
+      <c r="JL37" s="11">
+        <v>10800</v>
+      </c>
     </row>
-    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>50</v>
       </c>
@@ -26528,8 +26708,14 @@
       <c r="JJ38" s="11">
         <v>6000</v>
       </c>
+      <c r="JK38" s="11">
+        <v>6100</v>
+      </c>
+      <c r="JL38" s="11">
+        <v>6100</v>
+      </c>
     </row>
-    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>51</v>
       </c>
@@ -27338,8 +27524,14 @@
       <c r="JJ39" s="11">
         <v>4800</v>
       </c>
+      <c r="JK39" s="11">
+        <v>4800</v>
+      </c>
+      <c r="JL39" s="11">
+        <v>4700</v>
+      </c>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>54</v>
       </c>
@@ -28148,8 +28340,14 @@
       <c r="JJ40" s="11">
         <v>1300</v>
       </c>
+      <c r="JK40" s="11">
+        <v>1300</v>
+      </c>
+      <c r="JL40" s="11">
+        <v>1400</v>
+      </c>
     </row>
-    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>102</v>
       </c>
@@ -28162,7 +28360,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="16"/>
     </row>
-    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>16</v>
       </c>
@@ -28175,7 +28373,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="18"/>
     </row>
-    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>103</v>
       </c>
@@ -28188,7 +28386,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>104</v>
       </c>
@@ -28201,7 +28399,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>105</v>
       </c>
@@ -28214,7 +28412,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>106</v>
       </c>
@@ -28227,7 +28425,7 @@
       <c r="H47" s="14"/>
       <c r="I47" s="18"/>
     </row>
-    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>107</v>
       </c>
